--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H2">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I2">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J2">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>109.4724922321395</v>
+        <v>108.0570310760001</v>
       </c>
       <c r="R2">
-        <v>985.252430089256</v>
+        <v>972.5132796840008</v>
       </c>
       <c r="S2">
-        <v>4.398763409365853E-05</v>
+        <v>2.854155953437428E-05</v>
       </c>
       <c r="T2">
-        <v>4.538373085905516E-05</v>
+        <v>2.918344097196813E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H3">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I3">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J3">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>5153.77911879428</v>
+        <v>6906.898616622127</v>
       </c>
       <c r="R3">
-        <v>46384.01206914853</v>
+        <v>62162.08754959914</v>
       </c>
       <c r="S3">
-        <v>0.002070863149770368</v>
+        <v>0.001824348273325751</v>
       </c>
       <c r="T3">
-        <v>0.002136589015790298</v>
+        <v>0.001865376700344389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H4">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I4">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J4">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>3254.749961365254</v>
+        <v>5095.405874465247</v>
       </c>
       <c r="R4">
-        <v>29292.74965228729</v>
+        <v>45858.65287018722</v>
       </c>
       <c r="S4">
-        <v>0.001307805709431467</v>
+        <v>0.001345871052255396</v>
       </c>
       <c r="T4">
-        <v>0.001349313359440944</v>
+        <v>0.001376138832290233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H5">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I5">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J5">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>1149.974042325568</v>
+        <v>1085.933418494718</v>
       </c>
       <c r="R5">
-        <v>6899.844253953412</v>
+        <v>6515.600510968306</v>
       </c>
       <c r="S5">
-        <v>0.0004620762381453445</v>
+        <v>0.0002868321756178392</v>
       </c>
       <c r="T5">
-        <v>0.0003178278632232877</v>
+        <v>0.0001955218986526885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H6">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I6">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J6">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>3876.764966179731</v>
+        <v>6377.389922603586</v>
       </c>
       <c r="R6">
-        <v>34890.88469561758</v>
+        <v>57396.50930343228</v>
       </c>
       <c r="S6">
-        <v>0.001557740353967783</v>
+        <v>0.001684486907861532</v>
       </c>
       <c r="T6">
-        <v>0.001607180527650954</v>
+        <v>0.001722369942133852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J7">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>178.2275668535849</v>
+        <v>131.2700419882421</v>
       </c>
       <c r="R7">
-        <v>1604.048101682264</v>
+        <v>1181.430377894179</v>
       </c>
       <c r="S7">
-        <v>7.1614419625471E-05</v>
+        <v>3.467291004739968E-05</v>
       </c>
       <c r="T7">
-        <v>7.388734613436206E-05</v>
+        <v>3.545268164046849E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J8">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>8390.651329063701</v>
@@ -948,10 +948,10 @@
         <v>75515.86196157332</v>
       </c>
       <c r="S8">
-        <v>0.003371485319688061</v>
+        <v>0.002216258137540467</v>
       </c>
       <c r="T8">
-        <v>0.003478490841725839</v>
+        <v>0.00226610036699854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J9">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>5298.921715428195</v>
+        <v>6190.010371631875</v>
       </c>
       <c r="R9">
-        <v>47690.29543885376</v>
+        <v>55710.09334468688</v>
       </c>
       <c r="S9">
-        <v>0.002129183548821828</v>
+        <v>0.001634993556468026</v>
       </c>
       <c r="T9">
-        <v>0.002196760410517019</v>
+        <v>0.001671763516890772</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J10">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>1872.224440399605</v>
+        <v>1319.215640322159</v>
       </c>
       <c r="R10">
-        <v>11233.34664239763</v>
+        <v>7915.293841932953</v>
       </c>
       <c r="S10">
-        <v>0.0007522869165238961</v>
+        <v>0.0003484499931378861</v>
       </c>
       <c r="T10">
-        <v>0.0005174421956197155</v>
+        <v>0.0002375242738966923</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J11">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>6311.598220676864</v>
+        <v>7747.392599809283</v>
       </c>
       <c r="R11">
-        <v>56804.38398609178</v>
+        <v>69726.53339828354</v>
       </c>
       <c r="S11">
-        <v>0.002536091646553483</v>
+        <v>0.002046351495333094</v>
       </c>
       <c r="T11">
-        <v>0.002616583116882712</v>
+        <v>0.002092372632968015</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H12">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I12">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J12">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>10311.35225114288</v>
+        <v>6905.497928815512</v>
       </c>
       <c r="R12">
-        <v>92802.17026028596</v>
+        <v>62149.48135933961</v>
       </c>
       <c r="S12">
-        <v>0.004143250789178007</v>
+        <v>0.001823978303745581</v>
       </c>
       <c r="T12">
-        <v>0.004274750906067274</v>
+        <v>0.00186499841038475</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H13">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I13">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J13">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>485440.9617877571</v>
+        <v>441392.6018203938</v>
       </c>
       <c r="R13">
-        <v>4368968.656089814</v>
+        <v>3972533.416383544</v>
       </c>
       <c r="S13">
-        <v>0.1950572145184476</v>
+        <v>0.1165868902508391</v>
       </c>
       <c r="T13">
-        <v>0.2012480168170358</v>
+        <v>0.1192088549205929</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H14">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I14">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J14">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>306569.007946435</v>
+        <v>325627.2577750767</v>
       </c>
       <c r="R14">
-        <v>2759121.071517915</v>
+        <v>2930645.31997569</v>
       </c>
       <c r="S14">
-        <v>0.1231838708614382</v>
+        <v>0.08600930148881916</v>
       </c>
       <c r="T14">
-        <v>0.1270935288187749</v>
+        <v>0.0879435957245492</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H15">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I15">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J15">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>108317.5068760183</v>
+        <v>69397.71431414389</v>
       </c>
       <c r="R15">
-        <v>649905.0412561097</v>
+        <v>416386.2858848633</v>
       </c>
       <c r="S15">
-        <v>0.04352354423699516</v>
+        <v>0.01833031108594433</v>
       </c>
       <c r="T15">
-        <v>0.02993660769112581</v>
+        <v>0.01249503204686971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H16">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I16">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J16">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>365157.3865369007</v>
+        <v>407553.7932447344</v>
       </c>
       <c r="R16">
-        <v>3286416.478832107</v>
+        <v>3667984.13920261</v>
       </c>
       <c r="S16">
-        <v>0.1467255305700086</v>
+        <v>0.1076489029684087</v>
       </c>
       <c r="T16">
-        <v>0.151382362946893</v>
+        <v>0.1100698580150151</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H17">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I17">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J17">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>152.8567305374293</v>
+        <v>223.6937579541983</v>
       </c>
       <c r="R17">
-        <v>917.1403832245761</v>
+        <v>1342.16254772519</v>
       </c>
       <c r="S17">
-        <v>6.142004986399122E-05</v>
+        <v>5.908517610137911E-05</v>
       </c>
       <c r="T17">
-        <v>4.224628231413155E-05</v>
+        <v>4.027597597335802E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H18">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I18">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J18">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>7196.235419035099</v>
+        <v>14298.28389671549</v>
       </c>
       <c r="R18">
-        <v>43177.4125142106</v>
+        <v>85789.70338029292</v>
       </c>
       <c r="S18">
-        <v>0.002891551694950891</v>
+        <v>0.003776666053229458</v>
       </c>
       <c r="T18">
-        <v>0.001988883263711223</v>
+        <v>0.002574400573136586</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H19">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I19">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J19">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>4544.615982215259</v>
+        <v>10548.23066126408</v>
       </c>
       <c r="R19">
-        <v>27267.69589329156</v>
+        <v>63289.38396758445</v>
       </c>
       <c r="S19">
-        <v>0.001826092572168441</v>
+        <v>0.0027861486698541</v>
       </c>
       <c r="T19">
-        <v>0.001256033209129562</v>
+        <v>0.001899204915505497</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H20">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I20">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J20">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>1605.711797809888</v>
+        <v>2248.039991958332</v>
       </c>
       <c r="R20">
-        <v>6422.847191239553</v>
+        <v>8992.15996783333</v>
       </c>
       <c r="S20">
-        <v>0.0006451982738472413</v>
+        <v>0.0005937842880488301</v>
       </c>
       <c r="T20">
-        <v>0.000295855924201727</v>
+        <v>0.0002698391632420975</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H21">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I21">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J21">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>5413.137179115995</v>
+        <v>13202.12394807578</v>
       </c>
       <c r="R21">
-        <v>32478.82307469597</v>
+        <v>79212.74368845471</v>
       </c>
       <c r="S21">
-        <v>0.002175076977591886</v>
+        <v>0.003487132701056454</v>
       </c>
       <c r="T21">
-        <v>0.001496073615273741</v>
+        <v>0.002377037391623897</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H22">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I22">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J22">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>9362.566587168156</v>
+        <v>13531.93766103017</v>
       </c>
       <c r="R22">
-        <v>84263.0992845134</v>
+        <v>121787.4389492715</v>
       </c>
       <c r="S22">
-        <v>0.003762014957516028</v>
+        <v>0.003574247788615354</v>
       </c>
       <c r="T22">
-        <v>0.003881415262210275</v>
+        <v>0.003654630337652662</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H23">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I23">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J23">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>440773.7431696289</v>
+        <v>864948.0795511585</v>
       </c>
       <c r="R23">
-        <v>3966963.688526661</v>
+        <v>7784532.715960427</v>
       </c>
       <c r="S23">
-        <v>0.1771092786626597</v>
+        <v>0.2284623856571529</v>
       </c>
       <c r="T23">
-        <v>0.1827304423409835</v>
+        <v>0.2336003587369042</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H24">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I24">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J24">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>278360.4594773151</v>
+        <v>638095.5867870857</v>
       </c>
       <c r="R24">
-        <v>2505244.135295836</v>
+        <v>5742860.281083773</v>
       </c>
       <c r="S24">
-        <v>0.1118492672265665</v>
+        <v>0.168542879603048</v>
       </c>
       <c r="T24">
-        <v>0.1153991830927964</v>
+        <v>0.172333301276591</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H25">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I25">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J25">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>98350.81238451166</v>
+        <v>135990.9963911981</v>
       </c>
       <c r="R25">
-        <v>590104.87430707</v>
+        <v>815945.9783471884</v>
       </c>
       <c r="S25">
-        <v>0.03951878193117306</v>
+        <v>0.0359198756525926</v>
       </c>
       <c r="T25">
-        <v>0.0271820296771483</v>
+        <v>0.02448512713692428</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H26">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I26">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J26">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>331557.9046258556</v>
+        <v>798637.9230802407</v>
       </c>
       <c r="R26">
-        <v>2984021.1416327</v>
+        <v>7187741.307722167</v>
       </c>
       <c r="S26">
-        <v>0.1332247717409733</v>
+        <v>0.2109476042514224</v>
       </c>
       <c r="T26">
-        <v>0.1374531117444902</v>
+        <v>0.2156916810882472</v>
       </c>
     </row>
   </sheetData>
